--- a/Docs/excel/apex_property_test.xlsx
+++ b/Docs/excel/apex_property_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Projects/UnityProjects/Project/SeekKnowledge/Docs/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863ECE71-A30B-4540-A1A3-A6DCC0349E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E43E244-02C1-D445-83DA-E7581104BE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{AA8724DC-956F-6243-84CF-A412A8F45C92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Particle Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>FPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,11 +91,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Frame low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use IJobFor and Parallel</t>
+    <t>Excessive IO overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleParallel | Remove redundancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StabilizeTime(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,12 +144,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -146,15 +173,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,129 +500,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167A2190-7CD6-714B-8327-EAA0C46B79C4}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="22" customHeight="1"/>
   <cols>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22" customHeight="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="22" customHeight="1">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>128</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
         <v>110</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="J2" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="22" customHeight="1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>128</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="22" customHeight="1">
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1">
+        <v>220</v>
+      </c>
+      <c r="J4" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="22" customHeight="1">
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <v>220</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="22" customHeight="1">
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="22" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
